--- a/Doc/测试配置表.xlsx
+++ b/Doc/测试配置表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,6 +197,26 @@
   </si>
   <si>
     <t>忽略测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试JSON类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"1001","count":10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -599,21 +619,22 @@
     <col min="18" max="18" width="14" style="1" customWidth="1"/>
     <col min="19" max="19" width="11.375" style="1" customWidth="1"/>
     <col min="20" max="20" width="13.625" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="1"/>
+    <col min="21" max="21" width="25.625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -668,8 +689,11 @@
       <c r="T4" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="U4" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,8 +751,11 @@
       <c r="T5" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="U5" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -742,7 +769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>45</v>
       </c>
@@ -781,8 +808,11 @@
       <c r="T7" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="U7" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -834,8 +864,11 @@
       <c r="T8" s="1">
         <v>10.111000000000001</v>
       </c>
+      <c r="U8" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -889,6 +922,9 @@
       </c>
       <c r="T9" s="1">
         <v>5</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
